--- a/res/testcase/statisticalAnalysis/monthTicketFinanceReport.xlsx
+++ b/res/testcase/statisticalAnalysis/monthTicketFinanceReport.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="10365" activeTab="1"/>
+    <workbookView windowWidth="21600" windowHeight="9765" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="113">
   <si>
     <t>动作</t>
   </si>
@@ -341,13 +341,19 @@
     <t>8</t>
   </si>
   <si>
+    <t>MonthTicketFinanceReportPage.搜索按钮</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>MonthTicketFinanceReportPage.记录列表</t>
   </si>
   <si>
     <t>$全局变量.筛选数据停车场名称</t>
   </si>
   <si>
-    <t>9</t>
+    <t>10</t>
   </si>
   <si>
     <t>2筛选月票财务报表界面</t>
@@ -358,10 +364,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -381,6 +387,105 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -394,37 +499,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -434,32 +508,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -471,57 +522,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -538,79 +544,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -629,96 +725,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -760,6 +766,54 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -778,23 +832,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -824,39 +863,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -865,145 +871,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1763,10 +1769,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1903,41 +1909,59 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" ht="32" customHeight="1" spans="1:5">
+    <row r="9" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
         <v>106</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="32" customHeight="1" spans="1:5">
+      <c r="A10" s="3" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="32" customHeight="1" spans="1:5">
-      <c r="A10" s="3" t="s">
+      <c r="B10" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
         <v>110</v>
       </c>
     </row>
+    <row r="11" s="1" customFormat="1" ht="32" customHeight="1" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C5 C10 C2:C4 C6:C9 C11:C1048576">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9">
+      <formula1>[1]Actions!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C5 C10 C11 C2:C4 C6:C8 C12:C1048576">
       <formula1>[1]Actions!#REF!</formula1>
     </dataValidation>
   </dataValidations>
